--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Frameworks\19.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B85A23-0D37-49D0-9977-8E05BC04BD43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACAFD0E-AE74-4212-91C2-2FFEDCD0288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Test Name</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Postal Code</t>
   </si>
   <si>
-    <t>BoxesPageTest001</t>
-  </si>
-  <si>
     <t>BoxAuto</t>
   </si>
   <si>
@@ -130,6 +127,12 @@
   </si>
   <si>
     <t>Virtusa2019$</t>
+  </si>
+  <si>
+    <t>AddToCartTest001</t>
+  </si>
+  <si>
+    <t>AddToCartTest2001</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AKR2"/>
+  <dimension ref="A1:AKR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,13 +626,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D2"/>
       <c r="F2"/>
@@ -639,14 +642,36 @@
       <c r="R2"/>
       <c r="AA2"/>
       <c r="AB2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="N3"/>
+      <c r="R3"/>
+      <c r="AA3"/>
+      <c r="AB3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{219E0FFD-7B16-4B32-AD1A-7EC9D92D3CE5}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{07873F27-C770-4405-B017-D01AEF6A1F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>